--- a/3DLv2_2023_vs2019_Game/Plan/ゲーム制作の仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/ゲーム制作の仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikenaga0605\Desktop\Git - コピー\02Ikenaga\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38537846-015B-452C-ACE6-D34E91881B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E31CC-60C2-4589-A556-1C00E06E82DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -324,23 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■敵9(ナイフ)</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃(ナイフが飛んでくる)</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーは手前に移動する</t>
     <rPh sb="6" eb="8">
       <t>テマエ</t>
@@ -463,23 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面のどこからナイフが飛んでくる</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■敵10(ナイフ持ち人)</t>
-    <rPh sb="10" eb="11">
-      <t>ジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃(ナイフ)</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -500,13 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■プレイヤーが衝突したらダメなもの</t>
-    <rPh sb="7" eb="9">
-      <t>ショウトツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>机</t>
     <rPh sb="0" eb="1">
       <t>ツクエ</t>
@@ -774,6 +733,73 @@
     <t>ナイフを持っている人×5＋ナイフが飛んでくる×4+爆弾×3+車×2+狙撃手(スナイパー)</t>
     <rPh sb="34" eb="37">
       <t>ソゲキシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ステージ6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外で夜のステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフを持っている人×6＋ナイフが飛んでくる×5+爆弾×4+車×3+狙撃手(スナイパー)×2+その他</t>
+    <rPh sb="49" eb="50">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ステージ7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフを持っている人×7＋ナイフが飛んでくる×6+爆弾×5+車×4+狙撃手(スナイパー)×3+その他×2+戦闘機</t>
+    <rPh sb="53" eb="56">
+      <t>セントウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■プレイヤーが衝突したらダメなもの(その他)</t>
+    <rPh sb="7" eb="9">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■敵9(ナイフ持ち人)</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■敵10(ナイフ持ち人2)</t>
+    <rPh sb="10" eb="11">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃(ナイフを飛ばす)</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフを飛ばしてくる</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1933,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC4F207-852D-4D86-9999-6CE7E9561365}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1984,7 +2010,7 @@
         <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1992,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5"/>
       <c r="H4" t="s">
@@ -2002,10 +2028,10 @@
         <v>1.5</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2019,10 +2045,10 @@
         <v>1.5</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2036,10 +2062,10 @@
         <v>1.5</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2050,10 +2076,10 @@
         <v>1.5</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2070,10 +2096,10 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2084,10 +2110,10 @@
         <v>1.5</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2095,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2106,7 +2132,7 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2117,10 +2143,10 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2128,7 +2154,7 @@
         <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2139,10 +2165,10 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2150,10 +2176,10 @@
         <v>23</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2161,7 +2187,7 @@
         <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="8:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2172,21 +2198,27 @@
         <v>1.5</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="8:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H18" t="s">
         <v>21</v>
       </c>
+      <c r="P18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="8:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H19" t="s">
         <v>24</v>
       </c>
+      <c r="P19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="8:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H20" t="s">
@@ -2196,18 +2228,27 @@
         <v>1.5</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="8:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H21" t="s">
         <v>25</v>
       </c>
+      <c r="P21" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="8:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H22" t="s">
         <v>26</v>
       </c>
+      <c r="P22" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="8:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
@@ -2217,7 +2258,7 @@
         <v>1.5</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="8:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2241,7 +2282,7 @@
         <v>1.5</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="8:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2260,7 +2301,7 @@
         <v>1.5</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="8:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2271,7 +2312,7 @@
         <v>1.5</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="8:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -2282,135 +2323,135 @@
         <v>1.5</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="8:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="8:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I32">
         <v>1.5</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="8:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I34">
         <v>1.5</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H35" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I36">
         <v>1.5</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I37">
         <v>1.5</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I38">
         <v>1.5</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I39">
         <v>1.5</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I40">
         <v>1.5</v>
       </c>
       <c r="K40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I41">
         <v>1.5</v>
       </c>
       <c r="K41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I42">
         <v>1.5</v>
       </c>
       <c r="K42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I43">
         <v>1.5</v>
       </c>
       <c r="K43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="8:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.45"/>
